--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\PycharmProjects\pythonProject\xlsx_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BEB1D-1C17-4E02-BC06-A015E75DAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D465B-8628-4008-B90B-13BDB8A8E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Final Report</t>
   </si>
@@ -28,31 +28,49 @@
     <t>No.</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
     <t>Temperature(°C)</t>
   </si>
   <si>
     <t>Hour</t>
   </si>
   <si>
-    <t>14:04:55</t>
-  </si>
-  <si>
-    <t>14:06:37</t>
-  </si>
-  <si>
-    <t>14:07:31</t>
-  </si>
-  <si>
-    <t>14:07:36</t>
-  </si>
-  <si>
-    <t>14:07:47</t>
+    <t>11:08:51</t>
+  </si>
+  <si>
+    <t>11:08:57</t>
+  </si>
+  <si>
+    <t>11:09:44</t>
+  </si>
+  <si>
+    <t>11:09:49</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>26-09-22</t>
+    <t>30-09-22</t>
+  </si>
+  <si>
+    <t>Nominal value</t>
+  </si>
+  <si>
+    <t>Ltol</t>
+  </si>
+  <si>
+    <t>Utol</t>
   </si>
 </sst>
 </file>
@@ -97,19 +115,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,10 +240,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3456234637336993E-2"/>
-          <c:y val="9.6309656794630771E-2"/>
+          <c:x val="9.4595193144716566E-2"/>
+          <c:y val="0.14682102927741769"/>
           <c:w val="0.90262006722843857"/>
-          <c:h val="0.73668564785803159"/>
+          <c:h val="0.66284574341274494"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -239,32 +263,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>4.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -273,19 +298,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,7 +315,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7FDF-40A1-AF94-F40C037D3760}"/>
+              <c16:uniqueId val="{00000000-C98C-4056-99B2-F182593DCC09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -311,29 +333,54 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,7 +388,280 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7FDF-40A1-AF94-F40C037D3760}"/>
+              <c16:uniqueId val="{00000001-C98C-4056-99B2-F182593DCC09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nominal value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C98C-4056-99B2-F182593DCC09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ltol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C98C-4056-99B2-F182593DCC09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C98C-4056-99B2-F182593DCC09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -412,8 +732,8 @@
         <c:axId val="2054485584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22"/>
-          <c:min val="18"/>
+          <c:max val="24"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -471,6 +791,20 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1682947526296053E-2"/>
+          <c:y val="0.89043982317101944"/>
+          <c:w val="0.9"/>
+          <c:h val="7.3676505616118701E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -517,15 +851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30481</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>8573</xdr:rowOff>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18098</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>784466</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -838,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -852,109 +1186,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="7">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
